--- a/Tasks/Lab_01.xlsx
+++ b/Tasks/Lab_01.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\Parallel\Tasks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B78C953C-EE75-41F2-990E-68906DB2AABF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D002821-7646-44CB-809C-8FCFF0BABC3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3840" yWindow="0" windowWidth="31635" windowHeight="15600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6120" yWindow="0" windowWidth="31635" windowHeight="13875" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
+    <sheet name="Matix" sheetId="1" r:id="rId1"/>
+    <sheet name="Array" sheetId="2" r:id="rId2"/>
+    <sheet name="ArrayNaively" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="5">
   <si>
     <t>min</t>
   </si>
@@ -172,10 +173,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -219,11 +220,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="50000"/>
-                    <a:lumOff val="50000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -233,18 +234,14 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="ru-RU"/>
-              <a:t>Заполнение</a:t>
+              <a:t>Заполнение матрицы </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="ru-RU" baseline="0"/>
-              <a:t> матрицы </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
+              <a:rPr lang="en-US"/>
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:rPr lang="ru-RU"/>
               <a:t>разными способами</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
@@ -264,11 +261,11 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -291,7 +288,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист1!$A$1</c:f>
+              <c:f>Matix!$A$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -301,7 +298,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -310,156 +307,23 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-7.4104941877725844E-2"/>
-                  <c:y val="-8.0482897384305842E-3"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000D-D893-47B9-92C7-A39A3817CB8B}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-3.2687195095089154E-2"/>
-                  <c:y val="8.5848423876592889E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000004-D893-47B9-92C7-A39A3817CB8B}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="2"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-5.2820256699528244E-2"/>
-                  <c:y val="5.6338028169014086E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000B-D893-47B9-92C7-A39A3817CB8B}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="3"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="1.4074468146235603E-2"/>
-                  <c:y val="9.83668493496917E-17"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000E-D893-47B9-92C7-A39A3817CB8B}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
             <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="dk1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="ru-RU"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="dk1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
+          </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$A$2:$A$5</c:f>
+              <c:f>Matix!$A$2:$A$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -490,7 +354,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист1!$B$1</c:f>
+              <c:f>Matix!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -500,7 +364,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
@@ -509,156 +373,23 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-5.8901595321870406E-2"/>
-                  <c:y val="-3.7558685446009391E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000006-D893-47B9-92C7-A39A3817CB8B}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-6.8023603255383716E-2"/>
-                  <c:y val="-1.3413816230717664E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000005-D893-47B9-92C7-A39A3817CB8B}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="2"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-1.4811890309889693E-2"/>
-                  <c:y val="-4.0241448692152966E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000007-D893-47B9-92C7-A39A3817CB8B}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="3"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-1.1771220998718608E-2"/>
-                  <c:y val="-6.9751844399731727E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000009-D893-47B9-92C7-A39A3817CB8B}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
             <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="dk1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="ru-RU"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="dk1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
+          </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$B$2:$B$5</c:f>
+              <c:f>Matix!$B$2:$B$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -689,7 +420,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист1!$C$1</c:f>
+              <c:f>Matix!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -699,7 +430,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
@@ -708,156 +439,23 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-6.0178676432562278E-2"/>
-                  <c:y val="6.70690811535882E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000C-D893-47B9-92C7-A39A3817CB8B}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-5.1113651120785975E-2"/>
-                  <c:y val="-6.4386317907444715E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-D893-47B9-92C7-A39A3817CB8B}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="2"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-8.4504030921930928E-2"/>
-                  <c:y val="-2.6827632461435279E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000A-D893-47B9-92C7-A39A3817CB8B}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="3"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-3.8468297550800723E-2"/>
-                  <c:y val="6.1703554661301042E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000008-D893-47B9-92C7-A39A3817CB8B}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
             <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="dk1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="ru-RU"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="dk1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
+          </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$C$2:$C$5</c:f>
+              <c:f>Matix!$C$2:$C$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -886,27 +484,13 @@
         <c:dLbls>
           <c:dLblPos val="ctr"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
+          <c:showVal val="0"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:dropLines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="35000"/>
-                  <a:lumOff val="65000"/>
-                  <a:alpha val="33000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:dropLines>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="593839536"/>
         <c:axId val="303246568"/>
@@ -918,6 +502,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Способы, №</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -925,7 +564,7 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="dk1">
+              <a:schemeClr val="tx1">
                 <a:lumMod val="15000"/>
                 <a:lumOff val="85000"/>
               </a:schemeClr>
@@ -939,9 +578,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="20" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="dk1">
+                  <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
@@ -968,6 +607,80 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Время,</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" baseline="0"/>
+                  <a:t> с</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -984,9 +697,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="20" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="dk1">
+                  <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
@@ -1004,19 +717,7 @@
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="100000">
-              <a:schemeClr val="lt1">
-                <a:lumMod val="95000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="0">
-              <a:schemeClr val="lt1"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
+        <a:noFill/>
         <a:ln>
           <a:noFill/>
         </a:ln>
@@ -1040,7 +741,7 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="dk1">
+                <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
@@ -1067,11 +768,11 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="dk1">
+        <a:schemeClr val="tx1">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -1185,7 +886,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист2!$A$3</c:f>
+              <c:f>Array!$A$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1220,7 +921,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист2!$B$2:$H$2</c:f>
+              <c:f>Array!$B$2:$H$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1250,7 +951,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист2!$B$3:$H$3</c:f>
+              <c:f>Array!$B$3:$H$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1290,7 +991,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист2!$A$4</c:f>
+              <c:f>Array!$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1331,7 +1032,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист2!$B$2:$H$2</c:f>
+              <c:f>Array!$B$2:$H$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1361,7 +1062,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист2!$B$4:$H$4</c:f>
+              <c:f>Array!$B$4:$H$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1401,7 +1102,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист2!$A$5</c:f>
+              <c:f>Array!$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1442,7 +1143,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист2!$B$2:$H$2</c:f>
+              <c:f>Array!$B$2:$H$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1472,7 +1173,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист2!$B$5:$H$5</c:f>
+              <c:f>Array!$B$5:$H$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1512,7 +1213,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист2!$A$6</c:f>
+              <c:f>Array!$A$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1553,7 +1254,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист2!$B$2:$H$2</c:f>
+              <c:f>Array!$B$2:$H$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1583,7 +1284,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист2!$B$6:$H$6</c:f>
+              <c:f>Array!$B$6:$H$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1623,7 +1324,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист2!$A$7</c:f>
+              <c:f>Array!$A$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1664,7 +1365,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист2!$B$2:$H$2</c:f>
+              <c:f>Array!$B$2:$H$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1694,7 +1395,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист2!$B$7:$H$7</c:f>
+              <c:f>Array!$B$7:$H$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1749,6 +1450,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Количество потоков</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1814,6 +1570,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Время, с</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1858,7 +1669,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="r"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2013,7 +1824,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист2!$A$3</c:f>
+              <c:f>Array!$A$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2048,7 +1859,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист2!$B$2:$H$2</c:f>
+              <c:f>Array!$B$2:$H$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -2078,7 +1889,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист2!$B$3:$H$3</c:f>
+              <c:f>Array!$B$3:$H$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -2118,7 +1929,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист2!$A$4</c:f>
+              <c:f>Array!$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2159,7 +1970,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист2!$B$2:$H$2</c:f>
+              <c:f>Array!$B$2:$H$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -2189,7 +2000,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист2!$B$4:$H$4</c:f>
+              <c:f>Array!$B$4:$H$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -2229,7 +2040,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист2!$A$5</c:f>
+              <c:f>Array!$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2270,7 +2081,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист2!$B$2:$H$2</c:f>
+              <c:f>Array!$B$2:$H$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -2300,7 +2111,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист2!$B$5:$H$5</c:f>
+              <c:f>Array!$B$5:$H$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -2355,6 +2166,68 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Количество потоков</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2420,6 +2293,68 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Время, с</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2464,7 +2399,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="r"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2498,6 +2433,558 @@
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
     <c:extLst/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Сравнение наивного и нормального способов заполнения для массива размером 1000</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Наивный способ</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>ArrayNaively!$B$2:$H$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ArrayNaively!$B$3:$H$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2.9578E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.2277999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4102999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.7549999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.1039999999999992E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.9339999999999992E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.796E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E69F-4BCE-9BB2-0C4787A907F2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Нормальный способ</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Array!$B$3:$H$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>4.0000000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.04E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.3E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.4199999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.3199999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2589999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.534E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E69F-4BCE-9BB2-0C4787A907F2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="675457936"/>
+        <c:axId val="675455776"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="675457936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Количество потоков</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="675455776"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="675455776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Время, с</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="675457936"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2652,545 +3139,47 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="230">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200" cap="all"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" b="0" kern="1200" spc="20" baseline="0"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="2">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="1"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:shade val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="2">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="1"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:shade val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-            <a:alpha val="33000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:gradFill>
-        <a:gsLst>
-          <a:gs pos="100000">
-            <a:schemeClr val="lt1">
-              <a:lumMod val="95000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="0">
-            <a:schemeClr val="lt1"/>
-          </a:gs>
-        </a:gsLst>
-        <a:lin ang="5400000" scaled="0"/>
-      </a:gradFill>
-    </cs:spPr>
-  </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200" spc="20" baseline="0"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3693,7 +3682,1013 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4316,6 +5311,47 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>109537</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21A3ACE7-630E-E970-5D2D-7624450EFFA4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -4582,7 +5618,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13"/>
+      <selection activeCell="Q22" sqref="Q22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4652,28 +5688,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77FA5D5C-F40E-478A-83E9-482EE8A58281}">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K41" sqref="K41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="21.28515625" customWidth="1"/>
     <col min="2" max="8" width="13" bestFit="1" customWidth="1"/>
+    <col min="12" max="17" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="35.25" customHeight="1" thickBot="1">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
       <c r="H1" s="8"/>
     </row>
     <row r="2" spans="1:8" ht="18.75" thickBot="1">
@@ -4839,4 +5876,131 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58BD2266-D215-4AD2-B033-0D222116439C}">
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="40.5" customHeight="1" thickBot="1">
+      <c r="A1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="8"/>
+    </row>
+    <row r="2" spans="1:8" ht="18.75" thickBot="1">
+      <c r="A2" s="5"/>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1">
+        <v>12</v>
+      </c>
+      <c r="G2" s="1">
+        <v>16</v>
+      </c>
+      <c r="H2" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="18.75" thickBot="1">
+      <c r="A3" s="2">
+        <v>1000</v>
+      </c>
+      <c r="B3" s="3">
+        <v>2.9578E-2</v>
+      </c>
+      <c r="C3" s="3">
+        <v>2.2277999999999999E-2</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1.4102999999999999E-2</v>
+      </c>
+      <c r="E3" s="3">
+        <v>9.7549999999999998E-3</v>
+      </c>
+      <c r="F3" s="3">
+        <v>9.1039999999999992E-3</v>
+      </c>
+      <c r="G3" s="3">
+        <v>8.9339999999999992E-3</v>
+      </c>
+      <c r="H3" s="3">
+        <v>8.796E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="18.75" thickBot="1">
+      <c r="A4" s="2"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="1:8" ht="18.75" thickBot="1">
+      <c r="A5" s="2"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="1:8" ht="18.75" thickBot="1">
+      <c r="A6" s="2"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" spans="1:8" ht="18.75" thickBot="1">
+      <c r="A7" s="2"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Tasks/Lab_01.xlsx
+++ b/Tasks/Lab_01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\Parallel\Tasks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D002821-7646-44CB-809C-8FCFF0BABC3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E950FB89-7CA7-40ED-8FF7-8D04350F3513}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6120" yWindow="0" windowWidth="31635" windowHeight="13875" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Matix" sheetId="1" r:id="rId1"/>
@@ -482,7 +482,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="ctr"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -1327,9 +1326,6 @@
               <c:f>Array!$A$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>50000</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -1399,27 +1395,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>7.1645E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.6776000000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.0565E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.4E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.4670000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.46E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.4984000000000001E-2</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5617,7 +5592,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="Q22" sqref="Q22"/>
     </sheetView>
   </sheetViews>
@@ -5688,8 +5663,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77FA5D5C-F40E-478A-83E9-482EE8A58281}">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K41" sqref="K41"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5842,30 +5817,14 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="18.75" thickBot="1">
-      <c r="A7" s="2">
-        <v>50000</v>
-      </c>
-      <c r="B7" s="3">
-        <v>7.1645E-2</v>
-      </c>
-      <c r="C7" s="3">
-        <v>3.6776000000000003E-2</v>
-      </c>
-      <c r="D7" s="3">
-        <v>2.0565E-2</v>
-      </c>
-      <c r="E7" s="3">
-        <v>1.4E-2</v>
-      </c>
-      <c r="F7" s="3">
-        <v>1.4670000000000001E-2</v>
-      </c>
-      <c r="G7" s="3">
-        <v>1.46E-2</v>
-      </c>
-      <c r="H7" s="3">
-        <v>1.4984000000000001E-2</v>
-      </c>
+      <c r="A7" s="2"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5882,7 +5841,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58BD2266-D215-4AD2-B033-0D222116439C}">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
